--- a/data/input/clansInformation.xlsx
+++ b/data/input/clansInformation.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Clans" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Clans" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>

--- a/data/input/clansInformation.xlsx
+++ b/data/input/clansInformation.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Clans" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Clans" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -25,17 +25,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
       <name val="宋体"/>
       <charset val="134"/>
       <family val="3"/>
       <sz val="9"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="仿宋"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,15 +66,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -441,65 +443,78 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="12" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="10.8" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="12" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="10.8" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>部落</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>标签</t>
         </is>
       </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>占位列，勿删</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="n"/>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>零度轩辕</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>#QRL0PYQL</t>
         </is>
       </c>
+      <c r="C2" s="4" t="n"/>
+      <c r="D2" s="4" t="n"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>勾指起誓</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>#R8RJYCCU</t>
         </is>
       </c>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>啟明星之夢</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>#GQPV9Y2R</t>
         </is>
       </c>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/input/clansInformation.xlsx
+++ b/data/input/clansInformation.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Clans" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Clans" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -66,7 +66,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -74,7 +74,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -446,7 +445,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -467,12 +466,12 @@
           <t>标签</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>占位列，勿删</t>
         </is>
       </c>
-      <c r="D1" s="4" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
@@ -485,8 +484,8 @@
           <t>#QRL0PYQL</t>
         </is>
       </c>
-      <c r="C2" s="4" t="n"/>
-      <c r="D2" s="4" t="n"/>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="3" t="n"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
@@ -499,8 +498,8 @@
           <t>#R8RJYCCU</t>
         </is>
       </c>
-      <c r="C3" s="4" t="n"/>
-      <c r="D3" s="4" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -513,8 +512,8 @@
           <t>#GQPV9Y2R</t>
         </is>
       </c>
-      <c r="C4" s="4" t="n"/>
-      <c r="D4" s="4" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
